--- a/ProjectMVC/ProjectMVC Excel.xlsx
+++ b/ProjectMVC/ProjectMVC Excel.xlsx
@@ -14,15 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Тимур</t>
   </si>
   <si>
-    <t>Краснослободцев</t>
-  </si>
-  <si>
     <t>Красноболотцев</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>ДР</t>
+  </si>
+  <si>
+    <t>Равп</t>
+  </si>
+  <si>
+    <t>Грашкгра</t>
+  </si>
+  <si>
+    <t>Нарпррг</t>
   </si>
 </sst>
 </file>
@@ -366,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,13 +396,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>36819</v>
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -395,9 +410,42 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
+        <v>36819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>36819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
         <v>36819</v>
       </c>
     </row>
